--- a/biology/Médecine/Liste_des_pays_par_taux_d'obésité/Liste_des_pays_par_taux_d'obésité.xlsx
+++ b/biology/Médecine/Liste_des_pays_par_taux_d'obésité/Liste_des_pays_par_taux_d'obésité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_taux_d%27ob%C3%A9sit%C3%A9</t>
+          <t>Liste_des_pays_par_taux_d'obésité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste des pays par taux d'obésité telle que définie par un indice de masse corporel (IMC) supérieur à 30.
-La proportion de personnes en surpoids a considérablement augmenté au début du XXIe siècle dans le monde. En 2016, il y avait 1,9 milliard de personnes en surpoids (un IMC supérieur à 25) et environ 600 millions d'obèses (un IMC supérieur à 30)[1].
+La proportion de personnes en surpoids a considérablement augmenté au début du XXIe siècle dans le monde. En 2016, il y avait 1,9 milliard de personnes en surpoids (un IMC supérieur à 25) et environ 600 millions d'obèses (un IMC supérieur à 30).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_taux_d%27ob%C3%A9sit%C3%A9</t>
+          <t>Liste_des_pays_par_taux_d'obésité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des pays</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les données sont issues des statistiques de l'Organisation mondiale de la santé (OMS) en date de 2014. La mesure se fait en pourcentage de la population adulte[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données sont issues des statistiques de l'Organisation mondiale de la santé (OMS) en date de 2014. La mesure se fait en pourcentage de la population adulte,.
 </t>
         </is>
       </c>
